--- a/SeleniumBasics/src/main/resources/TestData.xlsx
+++ b/SeleniumBasics/src/main/resources/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{50D0E669-170C-44DF-A617-45FBFD45AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\git\seleniumbasics\SeleniumBasics\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169DBEF-AF92-4576-9210-857611033A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="1695" windowWidth="13935" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home_Page" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Registration_Page" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Demo Web Shop</t>
   </si>
@@ -31,20 +35,40 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Demo Web Shop. Login</t>
-  </si>
-  <si>
     <t>Demo Web Shop. Register</t>
+  </si>
+  <si>
+    <t>john314@gmail.com</t>
+  </si>
+  <si>
+    <t>john@1234</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.</t>
+  </si>
+  <si>
+    <t>Your registration completed</t>
+  </si>
+  <si>
+    <t>Demo Web Shop.Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -67,13 +91,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -354,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -378,43 +405,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85665981-9A70-4F07-8E53-A3B14FFFA783}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{41CEA9C1-5383-4352-8ACE-92F4CE7DA356}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{83C4787F-E43E-489D-A65B-44E6E208CAEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234AAF5-B676-4A2F-BEF3-052D19105933}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
